--- a/Configuração/Instância II/Estrutura Organizacional/Cargos e Posições.xlsx
+++ b/Configuração/Instância II/Estrutura Organizacional/Cargos e Posições.xlsx
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
   <si>
     <t>Presidência</t>
   </si>
   <si>
-    <t>ID Cargo</t>
-  </si>
-  <si>
     <t>Descrição</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
     <t>Presidente</t>
   </si>
   <si>
-    <t xml:space="preserve">Aprovadores </t>
-  </si>
-  <si>
     <t>Pessoa</t>
   </si>
   <si>
@@ -277,6 +271,9 @@
   </si>
   <si>
     <t xml:space="preserve">Div Coordenação Adm e Registr </t>
+  </si>
+  <si>
+    <t>ID Posição</t>
   </si>
 </sst>
 </file>
@@ -371,49 +368,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>29153</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>54463</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="525780" y="5029200"/>
-          <a:ext cx="4029653" cy="4169263"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -679,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -699,28 +653,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -735,16 +689,16 @@
         <v>30000418</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>40000010</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F3">
         <v>42528</v>
@@ -753,7 +707,7 @@
         <v>980100</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -761,16 +715,16 @@
         <v>30000341</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>40000314</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F4">
         <v>2223</v>
@@ -784,7 +738,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2"/>
       <c r="E5" s="4"/>
@@ -794,16 +748,16 @@
         <v>30000203</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>40034260</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F6">
         <v>1080</v>
@@ -817,7 +771,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2"/>
       <c r="E7" s="4"/>
@@ -827,16 +781,16 @@
         <v>30000488</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>40032300</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F8">
         <v>137913</v>
@@ -845,7 +799,7 @@
         <v>8571</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -853,21 +807,21 @@
         <v>30000273</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>40032068</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2"/>
       <c r="E10" s="4"/>
@@ -877,19 +831,19 @@
         <v>30000308</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>40014109</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2"/>
     </row>
@@ -898,16 +852,16 @@
         <v>30000204</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>40000033</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F13">
         <v>16204</v>
@@ -921,7 +875,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="2"/>
     </row>
@@ -930,13 +884,13 @@
         <v>30000257</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
         <v>37</v>
-      </c>
-      <c r="D15" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -944,16 +898,16 @@
         <v>30000431</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <v>40014083</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F16">
         <v>41799</v>
@@ -962,12 +916,12 @@
         <v>8012</v>
       </c>
       <c r="H16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="2"/>
     </row>
@@ -976,18 +930,18 @@
         <v>30000595</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2"/>
     </row>
@@ -996,16 +950,16 @@
         <v>30000207</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20">
         <v>40000037</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F20">
         <v>137474</v>
@@ -1014,12 +968,12 @@
         <v>980100</v>
       </c>
       <c r="H20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="2"/>
     </row>
@@ -1028,16 +982,16 @@
         <v>30000108</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22">
         <v>40034424</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F22">
         <v>14015</v>
@@ -1046,7 +1000,7 @@
         <v>2201</v>
       </c>
       <c r="H22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1054,16 +1008,16 @@
         <v>30000320</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23">
         <v>40014300</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F23">
         <v>45968</v>
@@ -1072,12 +1026,12 @@
         <v>2201</v>
       </c>
       <c r="H23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" s="2"/>
     </row>
@@ -1086,24 +1040,18 @@
         <v>30000489</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1124,27 +1072,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
         <v>60</v>
-      </c>
-      <c r="B1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1152,13 +1100,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -1166,13 +1114,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1180,13 +1128,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B5">
         <v>7</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D5">
         <v>7</v>
@@ -1194,13 +1142,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -1208,13 +1156,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -1222,13 +1170,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -1236,13 +1184,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -1250,13 +1198,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B10" s="1">
         <v>9</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -1264,13 +1212,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D11">
         <v>10</v>
